--- a/1150080130_LECONGDAT_LABTONGHOP_TESTCASE.xlsx
+++ b/1150080130_LECONGDAT_LABTONGHOP_TESTCASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C9BE0-404F-46A3-927D-90029D9D9A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F187F5-3F51-4213-B51D-F3FF49AA2F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="21" xr2:uid="{16F4F43D-FE5A-4729-AE8F-FBDE7D8FA914}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="23" xr2:uid="{16F4F43D-FE5A-4729-AE8F-FBDE7D8FA914}"/>
   </bookViews>
   <sheets>
     <sheet name="BÀI 1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
     <sheet name="lab4_3" sheetId="20" r:id="rId20"/>
     <sheet name="lab4_4" sheetId="21" r:id="rId21"/>
     <sheet name="lab4_5" sheetId="22" r:id="rId22"/>
+    <sheet name="lab4_6" sheetId="23" r:id="rId23"/>
+    <sheet name="Lab4_7" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="916">
   <si>
     <t>Test case ID</t>
   </si>
@@ -2479,13 +2481,328 @@
   </si>
   <si>
     <t xml:space="preserve">[-] Không quan tâm </t>
+  </si>
+  <si>
+    <t>Kiểm thử phân loại tài khoản ngân hàng khi mở mới</t>
+  </si>
+  <si>
+    <t>Truy cập hệ thống mở tài khoản</t>
+  </si>
+  <si>
+    <t>Hệ thống cho phép nhập số tiền gửi</t>
+  </si>
+  <si>
+    <t>Tuổi người gửi</t>
+  </si>
+  <si>
+    <t>Số tiền gửi</t>
+  </si>
+  <si>
+    <t>Tài khoản loại A</t>
+  </si>
+  <si>
+    <t>Tài khoản loại B</t>
+  </si>
+  <si>
+    <t>Tài khoản loại C</t>
+  </si>
+  <si>
+    <t>Tuổi &gt;=21 &amp; tiền &gt;=100</t>
+  </si>
+  <si>
+    <t>Tuổi &lt;21 &amp; tiền &gt;=100</t>
+  </si>
+  <si>
+    <t>Tuổi &gt;=21 &amp; tiền &lt;100</t>
+  </si>
+  <si>
+    <t>Tuổi &lt;21 &amp; tiền &lt;100</t>
+  </si>
+  <si>
+    <t>Tiền âm</t>
+  </si>
+  <si>
+    <t>Không mở tài khoản</t>
+  </si>
+  <si>
+    <t>Tiền gửi</t>
+  </si>
+  <si>
+    <t>TK loại A</t>
+  </si>
+  <si>
+    <t>TK loại B</t>
+  </si>
+  <si>
+    <t>TK loại C</t>
+  </si>
+  <si>
+    <t>Giá trị tuổi</t>
+  </si>
+  <si>
+    <t>Giá trị tiền</t>
+  </si>
+  <si>
+    <t>Tiền</t>
+  </si>
+  <si>
+    <t>Tuổi ≥21</t>
+  </si>
+  <si>
+    <t>Số tiền ≥100</t>
+  </si>
+  <si>
+    <t>Mở TK loại A</t>
+  </si>
+  <si>
+    <t>Mở TK loại B</t>
+  </si>
+  <si>
+    <t>Mở TK loại C</t>
+  </si>
+  <si>
+    <t>Không mở TK</t>
+  </si>
+  <si>
+    <t>2^2=4</t>
+  </si>
+  <si>
+    <t>C1: Tuổi ≥21</t>
+  </si>
+  <si>
+    <t>C2: Tiền ≥100</t>
+  </si>
+  <si>
+    <t>TC_D1</t>
+  </si>
+  <si>
+    <t>Tuổi ≥21, tiền ≥100</t>
+  </si>
+  <si>
+    <t>TC_D2</t>
+  </si>
+  <si>
+    <t>Tuổi ≥21, tiền &lt;100</t>
+  </si>
+  <si>
+    <t>TC_D3</t>
+  </si>
+  <si>
+    <t>Tuổi &lt;21, tiền ≥100</t>
+  </si>
+  <si>
+    <t>TC_D4</t>
+  </si>
+  <si>
+    <t>Tuổi &lt;21, tiền &lt;100</t>
+  </si>
+  <si>
+    <t>Kiểm thử chức năng hỗ trợ giảm giá bữa ăn trưa cho cán bộ</t>
+  </si>
+  <si>
+    <t>Cán bộ truy cập hệ thống nhà hàng</t>
+  </si>
+  <si>
+    <t>Hệ thống mở chức năng quét mã cán bộ</t>
+  </si>
+  <si>
+    <t>Dữ liệu đăng ký ăn trưa tồn tại</t>
+  </si>
+  <si>
+    <t>Trong / ngoài thời gian phục vụ</t>
+  </si>
+  <si>
+    <t>Trạng thái hỗ trợ của trường</t>
+  </si>
+  <si>
+    <t>Trạng thái đăng ký ăn</t>
+  </si>
+  <si>
+    <t>Trạng thái đến thêm 10%</t>
+  </si>
+  <si>
+    <t>Trạng thái đã ăn</t>
+  </si>
+  <si>
+    <t>Trong giờ + được hỗ trợ + đã đăng ký</t>
+  </si>
+  <si>
+    <t>Cho ăn + giảm</t>
+  </si>
+  <si>
+    <t>Trong giờ + được hỗ trợ + chưa đăng ký + thuộc 10%</t>
+  </si>
+  <si>
+    <t>Trong giờ + không được hỗ trợ</t>
+  </si>
+  <si>
+    <t>Cho ăn, không giảm</t>
+  </si>
+  <si>
+    <t>Trong giờ + đã ăn</t>
+  </si>
+  <si>
+    <t>Không cho ăn</t>
+  </si>
+  <si>
+    <t>Ngoài thời gian phục vụ</t>
+  </si>
+  <si>
+    <t>Dữ liệu cán bộ không hợp lệ</t>
+  </si>
+  <si>
+    <t>Trong giờ + đã đăng ký</t>
+  </si>
+  <si>
+    <t>Trong giờ + thuộc 10%</t>
+  </si>
+  <si>
+    <t>Trong giờ + không hỗ trợ</t>
+  </si>
+  <si>
+    <t>Ngoài giờ phục vụ</t>
+  </si>
+  <si>
+    <t>Không cho ăn / Báo lỗi</t>
+  </si>
+  <si>
+    <t>Số lượng cán bộ đến thêm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-10% đăng kí </t>
+  </si>
+  <si>
+    <t>10% − 1</t>
+  </si>
+  <si>
+    <t>10% + 1</t>
+  </si>
+  <si>
+    <t>Cho ăn</t>
+  </si>
+  <si>
+    <t>&gt;10%</t>
+  </si>
+  <si>
+    <t>Trong thời gian phục vụ</t>
+  </si>
+  <si>
+    <t>Trường có hỗ trợ giảm giá</t>
+  </si>
+  <si>
+    <t>Đã đăng ký ăn</t>
+  </si>
+  <si>
+    <t>Thuộc diện 10% đến thêm</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Đã ăn hôm nay</t>
+  </si>
+  <si>
+    <t>Cho ăn + giảm giá</t>
+  </si>
+  <si>
+    <t>2^5=32</t>
+  </si>
+  <si>
+    <t>32/2 = 16</t>
+  </si>
+  <si>
+    <t>16T VÀ 16F</t>
+  </si>
+  <si>
+    <t>16/2=8</t>
+  </si>
+  <si>
+    <t>8/2 =4</t>
+  </si>
+  <si>
+    <t>4/2= 2</t>
+  </si>
+  <si>
+    <t>Điền giá trị cho điều kiện thứ nhất (C5)</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4 </t>
+  </si>
+  <si>
+    <t>BẢNG QUYẾT ĐỊNH RÚT GỌN</t>
+  </si>
+  <si>
+    <t>TESTCASE</t>
+  </si>
+  <si>
+    <t>Trong giờ + hỗ trợ + đã đăng ký</t>
+  </si>
+  <si>
+    <t>Trong giờ + hỗ trợ + chưa đăng ký + thuộc 10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2555,6 +2872,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -2694,7 +3019,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2856,6 +3181,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7982,7 +8319,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="C19" s="27">
         <v>4</v>
       </c>
@@ -8044,7 +8381,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C22" s="27">
         <v>1</v>
       </c>
@@ -8383,7 +8720,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -8451,7 +8788,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C57" s="31" t="s">
         <v>596</v>
       </c>
@@ -13111,8 +13448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83813B9-5CC8-47D4-879F-CF5A2593AFAD}">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C107" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14650,6 +14987,3294 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
         <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA764AB4-7826-4B99-9A67-93DF2F43BDE8}">
+  <dimension ref="A1:R105"/>
+  <sheetViews>
+    <sheetView topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="D100" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>46035</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>812</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="G14" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C15" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>825</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11">
+        <v>25</v>
+      </c>
+      <c r="I16" s="11">
+        <v>200</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
+        <v>150</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="11">
+        <v>30</v>
+      </c>
+      <c r="I18" s="11">
+        <v>50</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="11">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="11">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="G28" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>831</v>
+      </c>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="D30" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="H30" s="11">
+        <v>20</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="H31" s="11">
+        <v>21</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="H32" s="11">
+        <v>21</v>
+      </c>
+      <c r="I32" s="11">
+        <v>99</v>
+      </c>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="H33" s="11">
+        <v>20</v>
+      </c>
+      <c r="I33" s="11">
+        <v>99</v>
+      </c>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D36" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>830</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E37" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="E39" s="11">
+        <v>20</v>
+      </c>
+      <c r="F39" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E40" s="11">
+        <v>21</v>
+      </c>
+      <c r="F40" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="11">
+        <v>22</v>
+      </c>
+      <c r="F41" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C61" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>600</v>
+      </c>
+      <c r="D64" t="s">
+        <v>604</v>
+      </c>
+      <c r="E64" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C66" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="D66" t="s">
+        <v>741</v>
+      </c>
+      <c r="E66" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C68" s="66"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C69" s="66"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C70" s="66"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B83" s="37"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="I88" s="54"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="54"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B95" s="51" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B96" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="27"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B560A-0D7B-497C-BFE4-7D6E5C4E510A}">
+  <dimension ref="A1:AH107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>46035</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>850</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="G14" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C15" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="G28" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="D30" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="11">
+        <v>3</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="G34" s="11">
+        <v>5</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D37" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="G51" s="69"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C62" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>885</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="D64" t="s">
+        <v>886</v>
+      </c>
+      <c r="E64" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C65" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="D65" t="s">
+        <v>888</v>
+      </c>
+      <c r="E65" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C66" s="55" t="s">
+        <v>739</v>
+      </c>
+      <c r="D66" t="s">
+        <v>889</v>
+      </c>
+      <c r="E66" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C67" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="D67" t="s">
+        <v>890</v>
+      </c>
+      <c r="E67" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C68" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="D68" t="s">
+        <v>606</v>
+      </c>
+      <c r="E68" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C69" s="66"/>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C70" s="66"/>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C71" s="66"/>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B72" s="70" t="s">
+        <v>608</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B73" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="K73" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="L73" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="M73" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="N73" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="O73" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="P73" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q73" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="R73" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="S73" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="T73" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="U73" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="V73" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="W73" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="X73" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="Y73" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="Z73" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA73" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="AB73" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="AC73" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD73" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="AE73" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="AF73" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="AG73" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="AH73" s="25" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B74" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="R74" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="S74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="T74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="U74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="V74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="W74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="X74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG74" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH74" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B75" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="R75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="S75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="T75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="U75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="V75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="W75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="X75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z75" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG75" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH75" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B76" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="R76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="S76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="T76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="U76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="V76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="W76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="X76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD76" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG76" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH76" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B77" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="R77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="S77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="T77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="U77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="V77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="W77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="X77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF77" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG77" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH77" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B78" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="O78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="R78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="S78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="T78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="U78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="V78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="W78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="X78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF78" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG78" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH78" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B79" s="71" t="s">
+        <v>522</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+      <c r="AH81" s="10"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B82" s="27" t="s">
+        <v>909</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
+      <c r="AF82" s="27"/>
+      <c r="AG82" s="27"/>
+      <c r="AH82" s="27"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B83" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="27"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B84" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH84" s="27"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B85" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B88" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B89" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="F89" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="G89" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="H89" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="I89" s="54"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B90" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A91" s="54"/>
+      <c r="B91" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B92" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B93" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B94" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B95" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B96" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="G98" s="27"/>
+      <c r="H98" s="11"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="70" t="s">
+        <v>913</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>579</v>
+      </c>
+      <c r="D102" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B103" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B104" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>915</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B105" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>863</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
